--- a/Spreadsheets & DataBases/Work_Shop_1.xlsx
+++ b/Spreadsheets & DataBases/Work_Shop_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otirm_2hwnj4i\Documents\GitHub\Learning\Spreadsheets &amp; DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54CA2B7-52E7-4E68-9E88-A8D3DA71A9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C25D0A8-ABCD-4301-BFE1-62F49E49BD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,11 +24,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+  <si>
+    <t>שם פרטי</t>
+  </si>
+  <si>
+    <t>שם משפחה</t>
+  </si>
+  <si>
+    <t>ציון תרגיל 1</t>
+  </si>
+  <si>
+    <t>ציון תרגיל 2</t>
+  </si>
+  <si>
+    <t>ציון תרגיל מסכם</t>
+  </si>
+  <si>
+    <t>ציון מבחן</t>
+  </si>
+  <si>
+    <t>עדי</t>
+  </si>
+  <si>
+    <t>רונן</t>
+  </si>
+  <si>
+    <t>דובר</t>
+  </si>
+  <si>
+    <t>יוסי</t>
+  </si>
+  <si>
+    <t>דוד</t>
+  </si>
+  <si>
+    <t>גיל</t>
+  </si>
+  <si>
+    <t>פרס</t>
+  </si>
+  <si>
+    <t>לימור</t>
+  </si>
+  <si>
+    <t>ארנס</t>
+  </si>
+  <si>
+    <t>פלג</t>
+  </si>
+  <si>
+    <t>כהן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">דקלה </t>
+  </si>
+  <si>
+    <t>נגה</t>
+  </si>
+  <si>
+    <t>לוי</t>
+  </si>
+  <si>
+    <t>חוה</t>
+  </si>
+  <si>
+    <t>ענבר</t>
+  </si>
+  <si>
+    <t>חנקין</t>
+  </si>
+  <si>
+    <t>אתי</t>
+  </si>
+  <si>
+    <t>מזרחי</t>
+  </si>
+  <si>
+    <t>ורד</t>
+  </si>
+  <si>
+    <t>רגב</t>
+  </si>
+  <si>
+    <t>חיים</t>
+  </si>
+  <si>
+    <t>רז</t>
+  </si>
+  <si>
+    <t>בראון</t>
+  </si>
+  <si>
+    <t>ענת</t>
+  </si>
+  <si>
+    <t>רוזן</t>
+  </si>
+  <si>
+    <t>ארז</t>
+  </si>
+  <si>
+    <t>שלומי</t>
+  </si>
+  <si>
+    <t>מיכל</t>
+  </si>
+  <si>
+    <t>רבינוביץ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -55,8 +175,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,45 +458,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336F7DB5-5699-45C0-9413-0ADBE3EAFA65}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="4" width="8.9375" style="1"/>
+    <col min="5" max="5" width="11.76171875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.9375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1">
+        <v>95</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3">
+      <c r="C3" s="1">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1">
+        <v>85</v>
+      </c>
+      <c r="E3" s="1">
+        <v>98</v>
+      </c>
+      <c r="F3" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>85</v>
+      </c>
+      <c r="D5" s="1">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1">
+        <v>98</v>
+      </c>
+      <c r="E6" s="1">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1">
+        <v>95</v>
+      </c>
+      <c r="E7" s="1">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>67</v>
+      </c>
+      <c r="E8" s="1">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1">
+        <v>88</v>
+      </c>
+      <c r="F9" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheets & DataBases/Work_Shop_1.xlsx
+++ b/Spreadsheets & DataBases/Work_Shop_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otirm_2hwnj4i\Documents\GitHub\Learning\Spreadsheets &amp; DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C25D0A8-ABCD-4301-BFE1-62F49E49BD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181B2F95-7475-49B5-93E2-70F32EBC67FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,13 +154,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -175,9 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +475,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.45"/>
@@ -472,22 +486,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -664,6 +678,12 @@
       <c r="D10" s="1">
         <v>84</v>
       </c>
+      <c r="E10" s="1">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -672,6 +692,18 @@
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C11" s="1">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1">
+        <v>74</v>
+      </c>
+      <c r="F11" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -680,6 +712,18 @@
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1">
+        <v>96</v>
+      </c>
+      <c r="F12" s="1">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -688,6 +732,18 @@
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C13" s="1">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
@@ -696,6 +752,18 @@
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C14" s="1">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1">
+        <v>95</v>
+      </c>
+      <c r="E14" s="1">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -704,6 +772,18 @@
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C15" s="1">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1">
+        <v>81</v>
+      </c>
+      <c r="F15" s="1">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
@@ -712,21 +792,57 @@
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16" s="1">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1">
+        <v>87</v>
+      </c>
+      <c r="E16" s="1">
+        <v>82</v>
+      </c>
+      <c r="F16" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17" s="1">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1">
+        <v>76</v>
+      </c>
+      <c r="E17" s="1">
+        <v>86</v>
+      </c>
+      <c r="F17" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1">
+        <v>87</v>
+      </c>
+      <c r="F18" s="1">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheets & DataBases/Work_Shop_1.xlsx
+++ b/Spreadsheets & DataBases/Work_Shop_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otirm_2hwnj4i\Documents\GitHub\Learning\Spreadsheets &amp; DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181B2F95-7475-49B5-93E2-70F32EBC67FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51CA5B5-8614-4E21-AE4E-8405C6A9D23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>שם פרטי</t>
   </si>
@@ -133,12 +133,18 @@
   </si>
   <si>
     <t>רבינוביץ</t>
+  </si>
+  <si>
+    <t>שכר</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,10 +194,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,376 +482,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336F7DB5-5699-45C0-9413-0ADBE3EAFA65}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="8.9375" style="1"/>
-    <col min="5" max="5" width="11.76171875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.9375" style="1"/>
+    <col min="1" max="1" width="8.9375" style="1"/>
+    <col min="2" max="2" width="10.05859375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.9375" style="1"/>
+    <col min="6" max="6" width="11.76171875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.9375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.9375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3">
+        <v>1250</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>90</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>95</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>100</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3">
+        <v>3652</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>65</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>85</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>98</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3">
+        <v>6054</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>87</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>65</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>72</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3">
+        <v>8456</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>85</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>78</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>95</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3">
+        <v>10858</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>63</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>98</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>92</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3">
+        <v>13260</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>45</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>95</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>68</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3">
+        <v>15662</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>55</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>67</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>78</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3">
+        <v>18064</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>69</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>58</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>88</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3">
+        <v>20466</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>87</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>84</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>68</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3">
+        <v>22868</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>72</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>40</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>74</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3">
+        <v>25270</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>100</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>66</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>96</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3">
+        <v>27672</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>75</v>
-      </c>
-      <c r="D13" s="1">
-        <v>100</v>
       </c>
       <c r="E13" s="1">
         <v>100</v>
       </c>
       <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3">
+        <v>30074</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>65</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>95</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>76</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3">
+        <v>32476</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>85</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>95</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>81</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3">
+        <v>34878</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>72</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>87</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>82</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3">
+        <v>37280</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>58</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>76</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>86</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3">
+        <v>39682</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>69</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>85</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>87</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>81</v>
       </c>
     </row>
